--- a/Sprint_1/Historias_de_Usuario/SP1_Historia_Usuario_Base_Datos_Peliculas.xlsx
+++ b/Sprint_1/Historias_de_Usuario/SP1_Historia_Usuario_Base_Datos_Peliculas.xlsx
@@ -63,10 +63,10 @@
     <t>PF reales:</t>
   </si>
   <si>
-    <t>Descripción: se Necesita una Pagina dentro de la Aplicacion MovieInfo que me permita buscar peliculas dentro de la Base de Datos peliculas y que esta busqueda me genere un restultado con Informacion de detalle de la misma y un link asociado a un trailer de la pelicula consultada.</t>
-  </si>
-  <si>
-    <t>Observaciones: El entregable se limita no a 5 interfases sino a un Login y registro,  busqueda de peliculas y las bases de datos asociadas a la lista de usuarios y peliculas registradas. Esta informacion se construye en paralelo con el MockUp, el diagrama de Uso y las observaciones del equipo en las distintas reuniones realizadas.</t>
+    <t>Descripción: Se Necesita una base de datos de Peliculas que me permita almacenar productos cinematograficos con su respectiva informacion (Titulo, descripcion de la pelicula, fecha de filmacion) y un link que me conecte al trailer de la misma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones: El entregable se limita no a 5 interfases sino a un Login y registro,  busqueda de peliculas y las bases de datos asociadas a la lista de usuarios y peliculas registradas. </t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1542,10 +1542,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A10:F14"/>
     <mergeCell ref="A15:F19"/>
@@ -1554,7 +1553,8 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
